--- a/data_year/zb/农业/牲畜饲养.xlsx
+++ b/data_year/zb/农业/牲畜饲养.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,778 +488,482 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14638.1124454205</v>
+        <v>11074.5568603545</v>
       </c>
       <c r="C2" t="n">
-        <v>14945.6029756301</v>
+        <v>14195.0243553077</v>
       </c>
       <c r="D2" t="n">
-        <v>12353.1524454205</v>
+        <v>9819.971441699099</v>
       </c>
       <c r="E2" t="n">
-        <v>41633.6087513396</v>
+        <v>46765.2468173291</v>
       </c>
       <c r="F2" t="n">
-        <v>13002.6166664273</v>
+        <v>14535.1756091804</v>
       </c>
       <c r="G2" t="n">
-        <v>27948.2196420575</v>
+        <v>28730.1789500217</v>
       </c>
       <c r="H2" t="n">
-        <v>876.58</v>
+        <v>529.9485841274</v>
       </c>
       <c r="I2" t="n">
-        <v>922.73</v>
+        <v>510.0959334875</v>
       </c>
       <c r="J2" t="n">
-        <v>32.62</v>
+        <v>23.0216946189</v>
       </c>
       <c r="K2" t="n">
-        <v>453.03</v>
+        <v>191.5192064215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13980.9</v>
+        <v>10580.0091465403</v>
       </c>
       <c r="C3" t="n">
-        <v>14562.3</v>
+        <v>14087.4367094028</v>
       </c>
       <c r="D3" t="n">
-        <v>11809.2</v>
+        <v>9383.999657681699</v>
       </c>
       <c r="E3" t="n">
-        <v>41950.5</v>
+        <v>47074.8099951742</v>
       </c>
       <c r="F3" t="n">
-        <v>13062.8</v>
+        <v>14576.7121042951</v>
       </c>
       <c r="G3" t="n">
-        <v>27625</v>
+        <v>28664.1488136979</v>
       </c>
       <c r="H3" t="n">
-        <v>826</v>
+        <v>515.3883630676</v>
       </c>
       <c r="I3" t="n">
-        <v>881.5</v>
+        <v>485.276203291</v>
       </c>
       <c r="J3" t="n">
-        <v>27.9</v>
+        <v>24.276593957</v>
       </c>
       <c r="K3" t="n">
-        <v>436.2</v>
+        <v>171.068328543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13672.3</v>
+        <v>10248.3626607947</v>
       </c>
       <c r="C4" t="n">
-        <v>14841.2</v>
+        <v>13932.2973208456</v>
       </c>
       <c r="D4" t="n">
-        <v>11567.8</v>
+        <v>9137.251369244501</v>
       </c>
       <c r="E4" t="n">
-        <v>41776.2</v>
+        <v>48030.2441687501</v>
       </c>
       <c r="F4" t="n">
-        <v>13399.7</v>
+        <v>14580.4413045201</v>
       </c>
       <c r="G4" t="n">
-        <v>28240.9</v>
+        <v>28512.7386253657</v>
       </c>
       <c r="H4" t="n">
-        <v>808.7682</v>
+        <v>465.2377401993</v>
       </c>
       <c r="I4" t="n">
-        <v>849.8838</v>
+        <v>462.4344558292</v>
       </c>
       <c r="J4" t="n">
-        <v>26.43</v>
+        <v>24.477599971</v>
       </c>
       <c r="K4" t="n">
-        <v>419.4445</v>
+        <v>158.9614955508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13467.3</v>
+        <v>10008.5701791187</v>
       </c>
       <c r="C5" t="n">
-        <v>14967.9</v>
+        <v>13657.5207431108</v>
       </c>
       <c r="D5" t="n">
-        <v>11434.4</v>
+        <v>8985.7551529294</v>
       </c>
       <c r="E5" t="n">
-        <v>41381.8</v>
+        <v>47893.1352798025</v>
       </c>
       <c r="F5" t="n">
-        <v>14339.5</v>
+        <v>15277.7005019635</v>
       </c>
       <c r="G5" t="n">
-        <v>29307.4</v>
+        <v>28935.2212450743</v>
       </c>
       <c r="H5" t="n">
-        <v>790.02</v>
+        <v>431.6785422516</v>
       </c>
       <c r="I5" t="n">
-        <v>820.6900000000001</v>
+        <v>425.7132976647</v>
       </c>
       <c r="J5" t="n">
-        <v>26.49</v>
+        <v>27.378437933</v>
       </c>
       <c r="K5" t="n">
-        <v>395.74</v>
+        <v>138.04474834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13191.4</v>
+        <v>9952.016772413899</v>
       </c>
       <c r="C6" t="n">
-        <v>15195.5</v>
+        <v>14167.5157667897</v>
       </c>
       <c r="D6" t="n">
-        <v>11235.4</v>
+        <v>9007.2764877425</v>
       </c>
       <c r="E6" t="n">
-        <v>42123.4</v>
+        <v>47160.2096435029</v>
       </c>
       <c r="F6" t="n">
-        <v>15230.5</v>
+        <v>16223.7662814491</v>
       </c>
       <c r="G6" t="n">
-        <v>30426</v>
+        <v>30391.2820470222</v>
       </c>
       <c r="H6" t="n">
-        <v>763.8511</v>
+        <v>415.7513702431</v>
       </c>
       <c r="I6" t="n">
-        <v>791.9142000000001</v>
+        <v>383.6230879547</v>
       </c>
       <c r="J6" t="n">
-        <v>26.22</v>
+        <v>28.0124441101</v>
       </c>
       <c r="K6" t="n">
-        <v>373.9537</v>
+        <v>117.3533823636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12894.8371961426</v>
+        <v>9929.803103550201</v>
       </c>
       <c r="C7" t="n">
-        <v>14658.9611051294</v>
+        <v>14507.505585467</v>
       </c>
       <c r="D7" t="n">
-        <v>10990.7830961426</v>
+        <v>9055.7893436128</v>
       </c>
       <c r="E7" t="n">
-        <v>43319.1061221614</v>
+        <v>45802.8918503974</v>
       </c>
       <c r="F7" t="n">
-        <v>15133.7072107077</v>
+        <v>16666.7751257383</v>
       </c>
       <c r="G7" t="n">
-        <v>29792.6683158371</v>
+        <v>31174.2663153185</v>
       </c>
       <c r="H7" t="n">
-        <v>739.9645</v>
+        <v>397.4980351398</v>
       </c>
       <c r="I7" t="n">
-        <v>777.1569</v>
+        <v>342.3709306297</v>
       </c>
       <c r="J7" t="n">
-        <v>26.56</v>
+        <v>30.0503059451</v>
       </c>
       <c r="K7" t="n">
-        <v>360.3727</v>
+        <v>104.0944882227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12325.6684952308</v>
+        <v>9559.9363367276</v>
       </c>
       <c r="C8" t="n">
-        <v>13956.0694704104</v>
+        <v>13691.7745466527</v>
       </c>
       <c r="D8" t="n">
-        <v>10503.0593952308</v>
+        <v>8834.489858000001</v>
       </c>
       <c r="E8" t="n">
-        <v>41854.43367132</v>
+        <v>44209.1655556403</v>
       </c>
       <c r="F8" t="n">
-        <v>14381.5418295896</v>
+        <v>16238.7655920767</v>
       </c>
       <c r="G8" t="n">
-        <v>28337.6113</v>
+        <v>29930.5401387293</v>
       </c>
       <c r="H8" t="n">
-        <v>719.3398999999999</v>
+        <v>351.1841093089</v>
       </c>
       <c r="I8" t="n">
-        <v>730.8656999999999</v>
+        <v>259.2582002654</v>
       </c>
       <c r="J8" t="n">
-        <v>26.91</v>
+        <v>30.4716</v>
       </c>
       <c r="K8" t="n">
-        <v>345.4935</v>
+        <v>84.5325691533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11998.1857408748</v>
+        <v>9763.6139922685</v>
       </c>
       <c r="C9" t="n">
-        <v>14564.0812714453</v>
+        <v>13823.7686280818</v>
       </c>
       <c r="D9" t="n">
-        <v>10397.4568995659</v>
+        <v>9038.745611041501</v>
       </c>
       <c r="E9" t="n">
-        <v>43933.2477409587</v>
+        <v>44158.9161665282</v>
       </c>
       <c r="F9" t="n">
-        <v>14042.4714868365</v>
+        <v>16407.8873359405</v>
       </c>
       <c r="G9" t="n">
-        <v>28606.6529857625</v>
+        <v>30231.6659640223</v>
       </c>
       <c r="H9" t="n">
-        <v>646.6943506178</v>
+        <v>343.6422403038</v>
       </c>
       <c r="I9" t="n">
-        <v>638.9046890323</v>
+        <v>267.7833206382</v>
       </c>
       <c r="J9" t="n">
-        <v>24.0957563166</v>
+        <v>32.326982</v>
       </c>
       <c r="K9" t="n">
-        <v>291.0340453422</v>
+        <v>81.11583828489999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11529.6628286786</v>
+        <v>9625.495590197301</v>
       </c>
       <c r="C10" t="n">
-        <v>15066.9916450903</v>
+        <v>13574.6862195261</v>
       </c>
       <c r="D10" t="n">
-        <v>10067.9737378628</v>
+        <v>8915.2759038604</v>
       </c>
       <c r="E10" t="n">
-        <v>46433.1152190486</v>
+        <v>42817.1138534961</v>
       </c>
       <c r="F10" t="n">
-        <v>13756.7320839719</v>
+        <v>16138.8199777121</v>
       </c>
       <c r="G10" t="n">
-        <v>28823.7237290622</v>
+        <v>29713.5061972382</v>
       </c>
       <c r="H10" t="n">
-        <v>594.7433871922</v>
+        <v>347.3096391188</v>
       </c>
       <c r="I10" t="n">
-        <v>600.3772838735</v>
+        <v>253.2846430454</v>
       </c>
       <c r="J10" t="n">
-        <v>22.7643895244</v>
+        <v>33.8378354981</v>
       </c>
       <c r="K10" t="n">
-        <v>243.8040302257</v>
+        <v>75.7875686747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11380.7642620764</v>
+        <v>9877.421506005199</v>
       </c>
       <c r="C11" t="n">
-        <v>14734.0440118299</v>
+        <v>13723.1742455688</v>
       </c>
       <c r="D11" t="n">
-        <v>10035.8638366168</v>
+        <v>9138.270506005199</v>
       </c>
       <c r="E11" t="n">
-        <v>47177.2095221141</v>
+        <v>31040.6902444157</v>
       </c>
       <c r="F11" t="n">
-        <v>14328.9405935129</v>
+        <v>16348.9620430057</v>
       </c>
       <c r="G11" t="n">
-        <v>29062.9846053428</v>
+        <v>30072.1362885745</v>
       </c>
       <c r="H11" t="n">
-        <v>562.2810521835</v>
+        <v>367.0999</v>
       </c>
       <c r="I11" t="n">
-        <v>540.3534345316</v>
+        <v>260.0691</v>
       </c>
       <c r="J11" t="n">
-        <v>22.5910276526</v>
+        <v>40.5326</v>
       </c>
       <c r="K11" t="n">
-        <v>219.6749110919</v>
+        <v>71.4494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11074.5568603545</v>
+        <v>10265.0582667303</v>
       </c>
       <c r="C12" t="n">
-        <v>14195.0243553077</v>
+        <v>13345.2496251846</v>
       </c>
       <c r="D12" t="n">
-        <v>9819.971441699099</v>
+        <v>9562.058738442471</v>
       </c>
       <c r="E12" t="n">
-        <v>46765.2468173291</v>
+        <v>40650.4246295498</v>
       </c>
       <c r="F12" t="n">
-        <v>14535.1756091804</v>
+        <v>17309.525045725</v>
       </c>
       <c r="G12" t="n">
-        <v>28730.1789500217</v>
+        <v>30654.7746709096</v>
       </c>
       <c r="H12" t="n">
-        <v>529.9485841274</v>
+        <v>367.1648699644</v>
       </c>
       <c r="I12" t="n">
-        <v>510.0959334875</v>
+        <v>232.432427266</v>
       </c>
       <c r="J12" t="n">
-        <v>23.0216946189</v>
+        <v>41.12313105748</v>
       </c>
       <c r="K12" t="n">
-        <v>191.5192064215</v>
+        <v>62.2791</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10580.0091465403</v>
+        <v>10486.7716559063</v>
       </c>
       <c r="C13" t="n">
-        <v>14087.4367094028</v>
+        <v>13331.6410111089</v>
       </c>
       <c r="D13" t="n">
-        <v>9383.999657681699</v>
+        <v>9817.247155906351</v>
       </c>
       <c r="E13" t="n">
-        <v>47074.8099951742</v>
+        <v>44922.4232507508</v>
       </c>
       <c r="F13" t="n">
-        <v>14576.7121042951</v>
+        <v>18637.6783275461</v>
       </c>
       <c r="G13" t="n">
-        <v>28664.1488136979</v>
+        <v>31969.3193386549</v>
       </c>
       <c r="H13" t="n">
-        <v>515.3883630676</v>
+        <v>372.4877</v>
       </c>
       <c r="I13" t="n">
-        <v>485.276203291</v>
+        <v>196.689</v>
       </c>
       <c r="J13" t="n">
-        <v>24.276593957</v>
+        <v>46.1702</v>
       </c>
       <c r="K13" t="n">
-        <v>171.068328543</v>
+        <v>54.1726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10248.3626607947</v>
+        <v>10859.0191904449</v>
       </c>
       <c r="C14" t="n">
-        <v>13932.2973208456</v>
+        <v>13224.2499410336</v>
       </c>
       <c r="D14" t="n">
-        <v>9137.251369244501</v>
+        <v>10215.8520066878</v>
       </c>
       <c r="E14" t="n">
-        <v>48030.2441687501</v>
+        <v>45255.7293827196</v>
       </c>
       <c r="F14" t="n">
-        <v>14580.4413045201</v>
+        <v>19403.0119676384</v>
       </c>
       <c r="G14" t="n">
-        <v>28512.7386253657</v>
+        <v>32627.261908672</v>
       </c>
       <c r="H14" t="n">
-        <v>465.2377401993</v>
+        <v>366.680300423729</v>
       </c>
       <c r="I14" t="n">
-        <v>462.4344558292</v>
+        <v>173.544183333333</v>
       </c>
       <c r="J14" t="n">
-        <v>24.477599971</v>
+        <v>54.138</v>
       </c>
       <c r="K14" t="n">
-        <v>158.9614955508</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10008.5701791187</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13657.5207431108</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8985.7551529294</v>
-      </c>
-      <c r="E15" t="n">
-        <v>47893.1352798025</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15277.7005019635</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28935.2212450743</v>
-      </c>
-      <c r="H15" t="n">
-        <v>431.6785422516</v>
-      </c>
-      <c r="I15" t="n">
-        <v>425.7132976647</v>
-      </c>
-      <c r="J15" t="n">
-        <v>27.378437933</v>
-      </c>
-      <c r="K15" t="n">
-        <v>138.04474834</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9952.016772413899</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14167.5157667897</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9007.2764877425</v>
-      </c>
-      <c r="E16" t="n">
-        <v>47160.2096435029</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16223.7662814491</v>
-      </c>
-      <c r="G16" t="n">
-        <v>30391.2820470222</v>
-      </c>
-      <c r="H16" t="n">
-        <v>415.7513702431</v>
-      </c>
-      <c r="I16" t="n">
-        <v>383.6230879547</v>
-      </c>
-      <c r="J16" t="n">
-        <v>28.0124441101</v>
-      </c>
-      <c r="K16" t="n">
-        <v>117.3533823636</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9929.803103550201</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14507.505585467</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9055.7893436128</v>
-      </c>
-      <c r="E17" t="n">
-        <v>45802.8918503974</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16666.7751257383</v>
-      </c>
-      <c r="G17" t="n">
-        <v>31174.2663153185</v>
-      </c>
-      <c r="H17" t="n">
-        <v>397.4980351398</v>
-      </c>
-      <c r="I17" t="n">
-        <v>342.3709306297</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30.0503059451</v>
-      </c>
-      <c r="K17" t="n">
-        <v>104.0944882227</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9559.9363367276</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13691.7745466527</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8834.489858000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>44209.1655556403</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16238.7655920767</v>
-      </c>
-      <c r="G18" t="n">
-        <v>29930.5401387293</v>
-      </c>
-      <c r="H18" t="n">
-        <v>351.1841093089</v>
-      </c>
-      <c r="I18" t="n">
-        <v>259.2582002654</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30.4716</v>
-      </c>
-      <c r="K18" t="n">
-        <v>84.5325691533</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9763.6139922685</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13823.7686280818</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9038.745611041501</v>
-      </c>
-      <c r="E19" t="n">
-        <v>44158.9161665282</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16407.8873359405</v>
-      </c>
-      <c r="G19" t="n">
-        <v>30231.6659640223</v>
-      </c>
-      <c r="H19" t="n">
-        <v>343.6422403038</v>
-      </c>
-      <c r="I19" t="n">
-        <v>267.7833206382</v>
-      </c>
-      <c r="J19" t="n">
-        <v>32.326982</v>
-      </c>
-      <c r="K19" t="n">
-        <v>81.11583828489999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9625.495590197301</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13574.6862195261</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8915.2759038604</v>
-      </c>
-      <c r="E20" t="n">
-        <v>42817.1138534961</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16138.8199777121</v>
-      </c>
-      <c r="G20" t="n">
-        <v>29713.5061972382</v>
-      </c>
-      <c r="H20" t="n">
-        <v>347.3096391188</v>
-      </c>
-      <c r="I20" t="n">
-        <v>253.2846430454</v>
-      </c>
-      <c r="J20" t="n">
-        <v>33.8378354981</v>
-      </c>
-      <c r="K20" t="n">
-        <v>75.7875686747</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9877.421506005199</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13723.1742455688</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9138.270506005199</v>
-      </c>
-      <c r="E21" t="n">
-        <v>31040.6902444157</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16348.9620430057</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30072.1362885745</v>
-      </c>
-      <c r="H21" t="n">
-        <v>367.0999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>260.0691</v>
-      </c>
-      <c r="J21" t="n">
-        <v>40.5326</v>
-      </c>
-      <c r="K21" t="n">
-        <v>71.4494</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>10265.0582667303</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13345.2496251846</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9562.058738442471</v>
-      </c>
-      <c r="E22" t="n">
-        <v>40650.4246295498</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17309.525045725</v>
-      </c>
-      <c r="G22" t="n">
-        <v>30654.7746709096</v>
-      </c>
-      <c r="H22" t="n">
-        <v>367.1648699644</v>
-      </c>
-      <c r="I22" t="n">
-        <v>232.432427266</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41.12313105748</v>
-      </c>
-      <c r="K22" t="n">
-        <v>62.2791</v>
+        <v>48.8047</v>
       </c>
     </row>
   </sheetData>
